--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344417.7261085569</v>
+        <v>341849.3026696107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854492</v>
+        <v>10116307.12854491</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8126253390002</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
         <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477815</v>
+        <v>85.43184040482269</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0005093289731</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369551</v>
       </c>
       <c r="T11" t="n">
         <v>176.9967538151398</v>
@@ -1427,10 +1427,10 @@
         <v>224.0739556344217</v>
       </c>
       <c r="V11" t="n">
-        <v>38.42424734961996</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
         <v>342.8098843539887</v>
@@ -1528,25 +1528,25 @@
         <v>152.910763857457</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3256047741475</v>
+        <v>107.0935281344739</v>
       </c>
       <c r="D13" t="n">
         <v>121.694256693732</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535773</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556699</v>
+        <v>62.01093634556702</v>
       </c>
       <c r="S13" t="n">
         <v>162.8478090069616</v>
@@ -1585,10 +1585,10 @@
         <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W13" t="n">
-        <v>6.716706063588035</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
         <v>198.7884390645568</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
         <v>338.3516754465272</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7618252962026</v>
+        <v>57.38104036202498</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
         <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
-        <v>91.93396437121767</v>
+        <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3167223315733</v>
@@ -1768,10 +1768,10 @@
         <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
-        <v>80.39377083095835</v>
+        <v>9.187014093434186</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898405</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535776</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.010936345567</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8478090069616</v>
@@ -1828,7 +1828,7 @@
         <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6634370276145</v>
@@ -1856,7 +1856,7 @@
         <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
-        <v>134.0098479164788</v>
+        <v>3.988230719931835</v>
       </c>
       <c r="H17" t="n">
         <v>220.7114114442476</v>
@@ -1895,7 +1895,7 @@
         <v>35.29140884510295</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
         <v>177.0988190158291</v>
@@ -2050,10 +2050,10 @@
         <v>15.03579972697445</v>
       </c>
       <c r="S19" t="n">
-        <v>115.872672388369</v>
+        <v>178.2894823809943</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0694063257217</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
         <v>212.31548526254</v>
@@ -2090,7 +2090,7 @@
         <v>308.0340171291889</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986386</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>337.0253727103806</v>
@@ -2135,16 +2135,16 @@
         <v>130.0216171965473</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V20" t="n">
-        <v>253.855905527062</v>
+        <v>253.7984563352514</v>
       </c>
       <c r="W20" t="n">
         <v>275.3446157743401</v>
       </c>
       <c r="X20" t="n">
-        <v>139.8964247607749</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3415857129807</v>
@@ -2254,7 +2254,7 @@
         <v>92.12945531595534</v>
       </c>
       <c r="H22" t="n">
-        <v>133.2754719638734</v>
+        <v>70.8586619712479</v>
       </c>
       <c r="I22" t="n">
         <v>22.45606746676521</v>
@@ -2287,7 +2287,7 @@
         <v>15.03579972697445</v>
       </c>
       <c r="S22" t="n">
-        <v>115.872672388369</v>
+        <v>178.2894823809943</v>
       </c>
       <c r="T22" t="n">
         <v>145.6525963330963</v>
@@ -2494,7 +2494,7 @@
         <v>70.8586619712479</v>
       </c>
       <c r="I25" t="n">
-        <v>84.87287745939072</v>
+        <v>22.45606746676521</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697445</v>
+        <v>77.45260971959986</v>
       </c>
       <c r="S25" t="n">
         <v>115.872672388369</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404365</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524151</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
         <v>307.7079050020905</v>
@@ -3275,10 +3275,10 @@
         <v>334.9552334536693</v>
       </c>
       <c r="F35" t="n">
-        <v>359.900909123119</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.946589034861</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.632627768728</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958338</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988206</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598766</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.2628020374611</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797673</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043388</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572834</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124565</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145489</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704447</v>
@@ -3503,7 +3503,7 @@
         <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524151</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
         <v>307.7079050020905</v>
@@ -3512,10 +3512,10 @@
         <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
-        <v>359.900909123119</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.946589034861</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.632627768728</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958338</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988206</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598766</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.2628020374611</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797673</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043388</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572834</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124565</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145489</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704447</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145478</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.046034918521</v>
+        <v>1498.722330561286</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046034918521</v>
+        <v>1156.95296142338</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973484114276</v>
+        <v>825.8804106191346</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378379318537</v>
+        <v>739.5856223314349</v>
       </c>
       <c r="F11" t="n">
         <v>739.5856223314349</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789366</v>
+        <v>351.7063199789368</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020931</v>
+        <v>81.31586739020929</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.821221795899</v>
+        <v>3063.723701125499</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.48389287224</v>
+        <v>2837.386372201841</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.671521812018</v>
+        <v>2533.516632660775</v>
       </c>
       <c r="W11" t="n">
-        <v>2881.671521812018</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.398911353444</v>
+        <v>1861.668514734592</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.452727180137</v>
+        <v>1498.722330561286</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064622</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,37 +5121,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2616458242696</v>
+        <v>418.3308347658146</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5186106988681</v>
+        <v>310.1555538219015</v>
       </c>
       <c r="D13" t="n">
-        <v>636.5951190890378</v>
+        <v>187.2320622120712</v>
       </c>
       <c r="E13" t="n">
-        <v>515.87517330915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1783736137451</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6686847909695</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403546</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504665</v>
+        <v>368.9259401504664</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601983</v>
+        <v>712.1377427601982</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946792520983</v>
@@ -5221,7 +5221,7 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.873271938411</v>
+        <v>2077.87327193841</v>
       </c>
       <c r="S13" t="n">
         <v>1913.380535567742</v>
@@ -5233,16 +5233,16 @@
         <v>1456.897348867922</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.897348867922</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.112797288541</v>
+        <v>967.1819862300856</v>
       </c>
       <c r="X13" t="n">
-        <v>1249.316394193029</v>
+        <v>766.3855831345736</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.716962852004</v>
+        <v>572.7861517935489</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1752.132350745903</v>
+        <v>1139.315638299669</v>
       </c>
       <c r="C14" t="n">
-        <v>1410.362981607997</v>
+        <v>797.546269161763</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.290430803752</v>
+        <v>739.5856223314348</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6953260080128</v>
+        <v>739.5856223314348</v>
       </c>
       <c r="F14" t="n">
-        <v>336.9025690209108</v>
+        <v>739.5856223314348</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9025690209108</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31586739020931</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508300938772</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="T14" t="n">
         <v>3063.723701125499</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.386372201841</v>
+        <v>2837.38637220184</v>
       </c>
       <c r="V14" t="n">
         <v>2533.516632660775</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.941125193167</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X14" t="n">
-        <v>2115.07853491921</v>
+        <v>1861.668514734592</v>
       </c>
       <c r="Y14" t="n">
-        <v>1752.132350745903</v>
+        <v>1498.722330561286</v>
       </c>
     </row>
     <row r="15">
@@ -5355,7 +5355,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031477</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>619.1272378613269</v>
+        <v>480.9681442057811</v>
       </c>
       <c r="C16" t="n">
-        <v>477.3842027359253</v>
+        <v>339.2251090803796</v>
       </c>
       <c r="D16" t="n">
-        <v>477.3842027359253</v>
+        <v>216.3016174705492</v>
       </c>
       <c r="E16" t="n">
-        <v>396.1783736137452</v>
+        <v>207.0218052549591</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1783736137452</v>
+        <v>207.0218052549591</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909695</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5437,49 +5437,49 @@
         <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504663</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601981</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.510581378377</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.87327193841</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567742</v>
+        <v>1976.017845007708</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.807067939773</v>
+        <v>1781.44437737974</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.897348867923</v>
+        <v>1519.534658307889</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.406008464541</v>
+        <v>1292.043317904507</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1819862300858</v>
+        <v>1029.819295670052</v>
       </c>
       <c r="X16" t="n">
-        <v>967.1819862300858</v>
+        <v>829.0228925745402</v>
       </c>
       <c r="Y16" t="n">
-        <v>773.5825548890612</v>
+        <v>635.4234612335155</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.247668749455</v>
+        <v>1518.912701884256</v>
       </c>
       <c r="C17" t="n">
-        <v>1355.927932559622</v>
+        <v>1224.592965694423</v>
       </c>
       <c r="D17" t="n">
-        <v>1072.30501470345</v>
+        <v>940.9700478382512</v>
       </c>
       <c r="E17" t="n">
-        <v>761.1595428557846</v>
+        <v>629.8245759905856</v>
       </c>
       <c r="F17" t="n">
-        <v>424.8164188167556</v>
+        <v>293.4814519515566</v>
       </c>
       <c r="G17" t="n">
         <v>289.4529360728375</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5543,22 +5543,22 @@
         <v>3289.957933886845</v>
       </c>
       <c r="T17" t="n">
-        <v>3289.957933886845</v>
+        <v>3158.622967021645</v>
       </c>
       <c r="U17" t="n">
-        <v>3111.07023791126</v>
+        <v>2979.735271046061</v>
       </c>
       <c r="V17" t="n">
-        <v>2854.650131318268</v>
+        <v>2723.315164453069</v>
       </c>
       <c r="W17" t="n">
-        <v>2576.524256798732</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="X17" t="n">
-        <v>2277.701279288231</v>
+        <v>2146.366312423032</v>
       </c>
       <c r="Y17" t="n">
-        <v>1962.204728062998</v>
+        <v>1830.869761197799</v>
       </c>
     </row>
     <row r="18">
@@ -5698,7 +5698,7 @@
         <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174005</v>
+        <v>1732.016485353171</v>
       </c>
       <c r="T19" t="n">
         <v>1584.892650673276</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.313855409961</v>
+        <v>1518.970731370934</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994119220129</v>
+        <v>1224.650995181101</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371201363957</v>
+        <v>941.0280773249287</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2257295162915</v>
+        <v>629.8826054772628</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772626</v>
+        <v>629.8826054772628</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728375</v>
+        <v>289.4529360728379</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,52 +5750,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886844</v>
+        <v>3289.957933886845</v>
       </c>
       <c r="T20" t="n">
         <v>3158.622967021645</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.622967021645</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="V20" t="n">
-        <v>2902.202860428653</v>
+        <v>2723.373193939746</v>
       </c>
       <c r="W20" t="n">
-        <v>2624.076985909117</v>
+        <v>2445.247319420211</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.767465948738</v>
+        <v>2146.42434190971</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.270914723505</v>
+        <v>1830.927790684477</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1614980085905</v>
+        <v>569.1142151877566</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8680958312623</v>
+        <v>474.8208130104284</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3942371695052</v>
+        <v>399.3469543486714</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1239243376908</v>
+        <v>326.076641516857</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8767575903591</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G22" t="n">
-        <v>223.8167017156568</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H22" t="n">
         <v>89.19501286325939</v>
@@ -5935,25 +5935,25 @@
         <v>1912.106871596599</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063768174005</v>
+        <v>1732.016485353171</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.939933494109</v>
+        <v>1584.892650673276</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479847370332</v>
+        <v>1370.432564549498</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.438139915023</v>
+        <v>1190.39085709419</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663750628642</v>
+        <v>975.6164678078077</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3169804812029</v>
+        <v>822.269697660369</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1671820882515</v>
+        <v>676.1198992674176</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073751</v>
+        <v>1862.179185073752</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859448883918</v>
+        <v>1567.859448883919</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027746</v>
+        <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800807</v>
+        <v>973.0910591800819</v>
       </c>
       <c r="F23" t="n">
-        <v>636.747935141052</v>
+        <v>636.7479351410529</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366274</v>
+        <v>296.3182657366275</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597334</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597334</v>
       </c>
       <c r="J23" t="n">
-        <v>280.0770094909367</v>
+        <v>262.2565770549988</v>
       </c>
       <c r="K23" t="n">
-        <v>613.8963831807832</v>
+        <v>596.0759507448453</v>
       </c>
       <c r="L23" t="n">
-        <v>1064.930596429192</v>
+        <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1598.462501101117</v>
+        <v>1580.642068665179</v>
       </c>
       <c r="N23" t="n">
-        <v>2145.241318159899</v>
+        <v>2253.630198496361</v>
       </c>
       <c r="O23" t="n">
-        <v>2648.213789039236</v>
+        <v>2756.602669375698</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.568876486182</v>
+        <v>3151.377035732876</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.855238241864</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798666</v>
+        <v>3668.872304798667</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.22441707634</v>
+        <v>3633.224417076341</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211141</v>
+        <v>3501.889450211142</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235556</v>
+        <v>3323.001754235557</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642563</v>
+        <v>3066.581647642565</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.455773123028</v>
+        <v>2788.45577312303</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612527</v>
+        <v>2489.632795612529</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387294</v>
+        <v>2174.136244387296</v>
       </c>
     </row>
     <row r="24">
@@ -6057,16 +6057,16 @@
         <v>319.2497322239498</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8866320565678</v>
+        <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443536</v>
+        <v>92.38473769443539</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597334</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865906</v>
+        <v>167.0547155865907</v>
       </c>
       <c r="K24" t="n">
         <v>405.3189145669378</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0268276723804</v>
+        <v>575.9795448515465</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7334254950522</v>
+        <v>481.6861426742183</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2595668332951</v>
+        <v>406.2122840124613</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9892540014807</v>
+        <v>332.9419711806469</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7420872541491</v>
+        <v>260.6948044333152</v>
       </c>
       <c r="G25" t="n">
-        <v>230.6820313794467</v>
+        <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>159.1076253478832</v>
+        <v>96.06034252704931</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597334</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
@@ -6169,28 +6169,28 @@
         <v>1934.159877752283</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972201260389</v>
+        <v>1855.924918439556</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.929097837794</v>
+        <v>1738.881815016961</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.805263157899</v>
+        <v>1591.757980337065</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.345177034121</v>
+        <v>1377.297894213288</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.303469578813</v>
+        <v>1197.25618675798</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.529080292431</v>
+        <v>982.4817974715976</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1823101449928</v>
+        <v>829.135027324159</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0325117520414</v>
+        <v>682.9852289312075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1394.992678104635</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644152</v>
+        <v>1928.52458277656</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702934</v>
+        <v>2475.303399835342</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.586874582271</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939449</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
@@ -6467,46 +6467,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899673</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257049</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913851</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641548</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519673</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6710,40 +6710,40 @@
         <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2642.103738532154</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>3145.076209411491</v>
       </c>
       <c r="P32" t="n">
-        <v>3672.421873296413</v>
+        <v>3539.850575768669</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873066</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913848</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.79051496434</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6862,7 +6862,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,13 +6877,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570352</v>
@@ -6892,16 +6892,16 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689502</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467809</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398488</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>771.2510705659142</v>
       </c>
       <c r="L35" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2030.265665799119</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2577.044482857902</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3080.016953737239</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094417</v>
       </c>
       <c r="Q35" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603405</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641924</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833289</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L36" t="n">
         <v>779.786545680319</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899672</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
         <v>229.7905149643396</v>
@@ -7090,55 +7090,55 @@
         <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498219</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308446</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481266</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167332</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572253</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277854</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052754</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7160,64 +7160,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398488</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878785</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127194</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799118</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857901</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737238</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094416</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899672</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302706</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572253</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277854</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052754</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388314</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094416</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834459</v>
@@ -7442,16 +7442,16 @@
         <v>3835.976694641923</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805549</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7594,16 +7594,16 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,28 +7646,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>1045.699547878784</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.733761127193</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.265665799118</v>
+        <v>1921.876785462657</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.0444828579</v>
+        <v>2468.655602521439</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.016953737237</v>
+        <v>2971.628073400776</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7676,22 +7676,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668918</v>
@@ -7807,10 +7807,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.161415276423</v>
+        <v>212.1614152764238</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188437</v>
+        <v>225.9304893188448</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603979</v>
+        <v>219.4018707603991</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030233</v>
+        <v>218.2916099030246</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661484</v>
+        <v>219.5965380661496</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111176</v>
+        <v>222.2700605111186</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357293</v>
+        <v>123.6869003357296</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344805</v>
+        <v>132.4563458344811</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915377</v>
+        <v>131.3134574915385</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437697</v>
+        <v>133.6842191437707</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511131</v>
+        <v>122.668255851114</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891796</v>
+        <v>134.6617264891804</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357707</v>
+        <v>127.6062572357714</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369104</v>
+        <v>135.7248343369109</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970308</v>
+        <v>130.7280129970313</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216059</v>
+        <v>134.5431653216064</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145261</v>
+        <v>123.4071347145265</v>
       </c>
       <c r="O7" t="n">
-        <v>134.50473456638</v>
+        <v>134.5047345663805</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299171</v>
+        <v>134.3465531299175</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>18.00043680397778</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>127.4841543155557</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>343.5485285966319</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.7385611944685</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>402.5500016878933</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>187.8883066283071</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.40458911672741</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>277.2206841544158</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>21.13839585591506</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K38" t="n">
-        <v>277.2206841544149</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>343.5485285966304</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544149</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>277.2206841544143</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>336.8335818149114</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.24040888277509</v>
+        <v>15.2404088827751</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>269.5773133429587</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369548</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>262.4067947960346</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.23207663967362</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993477</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>252.8850759485226</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8126253390002</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>270.3807849341777</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844562</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>250.875919982771</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>39.11897549113048</v>
+        <v>110.3257322286547</v>
       </c>
       <c r="F16" t="n">
         <v>118.4998316984509</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.010936345567</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>203.0155247939018</v>
+        <v>333.0371419904487</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965473</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,16 +24023,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0988190158291</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.05744919181058208</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>155.9383229746213</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-6.983302952577993e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921686.4662562461</v>
+        <v>921686.466256246</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.1693585193</v>
+        <v>409638.1693585194</v>
       </c>
       <c r="C2" t="n">
-        <v>409640.6500380869</v>
+        <v>409640.650038087</v>
       </c>
       <c r="D2" t="n">
         <v>409643.7727602342</v>
       </c>
       <c r="E2" t="n">
-        <v>364770.9451264197</v>
+        <v>364770.9451264196</v>
       </c>
       <c r="F2" t="n">
-        <v>364770.9451264197</v>
+        <v>364770.9451264195</v>
       </c>
       <c r="G2" t="n">
-        <v>397266.0066809214</v>
+        <v>397266.0066809215</v>
       </c>
       <c r="H2" t="n">
         <v>397266.0066809214</v>
@@ -26335,22 +26335,22 @@
         <v>410520.8849321412</v>
       </c>
       <c r="J2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="K2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321414</v>
+        <v>410520.8849321413</v>
       </c>
       <c r="M2" t="n">
+        <v>410520.8849321411</v>
+      </c>
+      <c r="N2" t="n">
         <v>410520.884932141</v>
       </c>
-      <c r="N2" t="n">
-        <v>410520.8849321411</v>
-      </c>
       <c r="O2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321413</v>
       </c>
       <c r="P2" t="n">
         <v>410520.8849321411</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945456</v>
+        <v>14118.19859945298</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072185</v>
+        <v>16714.64353072333</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>22820.44161905848</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728114</v>
+        <v>25410.44272728121</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.109294874</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200266</v>
+        <v>426739.1543200271</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210903</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210903</v>
       </c>
       <c r="G4" t="n">
+        <v>74613.22686521034</v>
+      </c>
+      <c r="H4" t="n">
         <v>74613.22686521035</v>
-      </c>
-      <c r="H4" t="n">
-        <v>74613.22686521034</v>
       </c>
       <c r="I4" t="n">
         <v>85473.00365913907</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646591</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="L4" t="n">
         <v>80755.36360646595</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646594</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646598</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112994</v>
+        <v>33965.59259112991</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
@@ -26491,22 +26491,22 @@
         <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480613</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54887.9400841566</v>
+        <v>-54892.3536620246</v>
       </c>
       <c r="C6" t="n">
-        <v>-65182.29547252425</v>
+        <v>-65186.6966469932</v>
       </c>
       <c r="D6" t="n">
-        <v>-63056.92549403751</v>
+        <v>-63061.31105489856</v>
       </c>
       <c r="E6" t="n">
-        <v>-866552.9437441856</v>
+        <v>-866781.6934432142</v>
       </c>
       <c r="F6" t="n">
-        <v>250615.8977277346</v>
+        <v>250387.1480287059</v>
       </c>
       <c r="G6" t="n">
-        <v>204553.9374638726</v>
+        <v>204487.6630726165</v>
       </c>
       <c r="H6" t="n">
-        <v>242134.0467587465</v>
+        <v>242067.7723674904</v>
       </c>
       <c r="I6" t="n">
         <v>216491.0560524988</v>
@@ -26549,16 +26549,16 @@
         <v>240387.5796508694</v>
       </c>
       <c r="L6" t="n">
-        <v>202807.4703559953</v>
+        <v>202807.4703559952</v>
       </c>
       <c r="M6" t="n">
-        <v>33199.01135879601</v>
+        <v>33199.01135879592</v>
       </c>
       <c r="N6" t="n">
         <v>240387.5796508691</v>
       </c>
       <c r="O6" t="n">
-        <v>240387.5796508694</v>
+        <v>240387.5796508692</v>
       </c>
       <c r="P6" t="n">
         <v>240387.579650869</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G2" t="n">
         <v>73.89635294307288</v>
@@ -26707,25 +26707,25 @@
         <v>73.89635294307288</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953872</v>
+        <v>15.50424729953699</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26802,22 +26802,22 @@
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996666</v>
+        <v>917.2180761996667</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953872</v>
+        <v>15.50424729953699</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958661</v>
+        <v>19.51701341958834</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27033,7 +27033,7 @@
         <v>85.81662079737396</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.11838500894805</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096107</v>
+        <v>338.8364790096109</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713488</v>
+        <v>208.072964971349</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851816</v>
+        <v>6.659224593852406</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783753</v>
+        <v>3.259908116784502</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886687</v>
+        <v>145.9538669886691</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763429</v>
+        <v>207.599755876343</v>
       </c>
       <c r="T5" t="n">
         <v>222.8230059759757</v>
@@ -27710,10 +27710,10 @@
         <v>137.3101684048682</v>
       </c>
       <c r="H6" t="n">
-        <v>111.9133654388211</v>
+        <v>111.9133654388212</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234546</v>
+        <v>88.24844095234559</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573492</v>
+        <v>98.08728580573515</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27749,7 +27749,7 @@
         <v>200.0303097960643</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9391880837154</v>
+        <v>225.9391880837155</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.6096872212439</v>
+        <v>154.6096872212441</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997585</v>
+        <v>91.38251566997607</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263523</v>
+        <v>19.0212249326356</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946404</v>
+        <v>83.8209019094643</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059643</v>
+        <v>176.0362765059644</v>
       </c>
       <c r="S7" t="n">
-        <v>223.5293580029851</v>
+        <v>223.5293580029852</v>
       </c>
       <c r="T7" t="n">
         <v>227.8261304736785</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="17">
@@ -28770,10 +28770,10 @@
         <v>73.89635294307288</v>
       </c>
       <c r="S19" t="n">
+        <v>11.47954295044758</v>
+      </c>
+      <c r="T19" t="n">
         <v>73.89635294307288</v>
-      </c>
-      <c r="T19" t="n">
-        <v>11.4795429504475</v>
       </c>
       <c r="U19" t="n">
         <v>73.89635294307288</v>
@@ -28974,7 +28974,7 @@
         <v>73.89635294307288</v>
       </c>
       <c r="H22" t="n">
-        <v>11.47954295044735</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I22" t="n">
         <v>73.89635294307288</v>
@@ -29007,7 +29007,7 @@
         <v>73.89635294307288</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307288</v>
+        <v>11.47954295044758</v>
       </c>
       <c r="T22" t="n">
         <v>73.89635294307288</v>
@@ -29214,7 +29214,7 @@
         <v>73.89635294307288</v>
       </c>
       <c r="I25" t="n">
-        <v>11.47954295044737</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307288</v>
+        <v>11.47954295044747</v>
       </c>
       <c r="S25" t="n">
         <v>73.89635294307288</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859472</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859348</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859358</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859486</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859207</v>
+        <v>46.97513661859348</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0623286323599546</v>
+        <v>0.06232863235994765</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563852</v>
+        <v>0.638323106156314</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057152</v>
+        <v>2.402924599056884</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760702</v>
+        <v>5.290064760760112</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557581</v>
+        <v>7.928435768556698</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143544</v>
+        <v>9.835925651142448</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687489</v>
+        <v>10.94436246687367</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356761</v>
+        <v>11.12145369356637</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553831</v>
+        <v>10.50167335553714</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151929</v>
+        <v>8.962935244150929</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097761052</v>
+        <v>6.730791097760302</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952481002</v>
+        <v>3.915250952480565</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902467</v>
+        <v>1.420313709902309</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881557014</v>
+        <v>0.272843588155671</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796367</v>
+        <v>0.004986290588795812</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240403</v>
+        <v>0.03334875834240032</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753233</v>
+        <v>0.3220787976752874</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069613</v>
+        <v>1.148191899069485</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937392</v>
+        <v>3.150726330937041</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878463</v>
+        <v>5.385093139877863</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336456</v>
+        <v>7.240922288335649</v>
       </c>
       <c r="M6" t="n">
-        <v>8.4498147782486</v>
+        <v>8.449814778247658</v>
       </c>
       <c r="N6" t="n">
-        <v>8.67345623222025</v>
+        <v>8.673456232219284</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264876</v>
+        <v>7.934517955263992</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559593</v>
+        <v>6.368150178558882</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111084</v>
+        <v>4.25693974911061</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908209</v>
+        <v>2.070548346907978</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617588</v>
+        <v>0.6194385595616897</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573215</v>
+        <v>0.1344188987573065</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368688</v>
+        <v>0.002193997259368443</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0279584787368731</v>
+        <v>0.02795847873686998</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696537</v>
+        <v>0.248576292769626</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143294</v>
+        <v>0.8407877060142357</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696928</v>
+        <v>1.976664446696707</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247619</v>
+        <v>3.248266893247257</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207479</v>
+        <v>4.156663284207015</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999116</v>
+        <v>4.382618625998627</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707138</v>
+        <v>4.278409750706661</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462755</v>
+        <v>3.951803885462315</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230541</v>
+        <v>3.381450919230164</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230347</v>
+        <v>2.341141342230086</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205221</v>
+        <v>1.257114871205081</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871428</v>
+        <v>0.4872400339870885</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030032</v>
+        <v>0.1194589546029899</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102171</v>
+        <v>0.001525007931102001</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754659</v>
+        <v>72.49963293754656</v>
       </c>
       <c r="K13" t="n">
         <v>232.9688758687999</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
         <v>374.5545957179642</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754656</v>
+        <v>72.49963293754655</v>
       </c>
       <c r="K16" t="n">
         <v>232.9688758687999</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>208.7874377726903</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,16 +36367,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>679.7859897284671</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>799.1386429889639</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>356.532865998188</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36835,19 +36835,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>858.1401160802254</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>740.1901420412186</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>329.1988939204469</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>816.1417999846426</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>80.75159439813984</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165867</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K37" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887928</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120763</v>
@@ -37476,13 +37476,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564871</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K38" t="n">
-        <v>614.4119707098154</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165867</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887917</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
@@ -37713,13 +37713,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564885</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>895.8503640095419</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737867</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>614.4119707098149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>875.7546976451382</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,16 +38184,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564871</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
